--- a/excel/live_data.xlsx
+++ b/excel/live_data.xlsx
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94943.29383635317</v>
+        <v>95156.35895390643</v>
       </c>
       <c r="D2" t="n">
-        <v>1882052558708.171</v>
+        <v>1886276129783.699</v>
       </c>
       <c r="E2" t="n">
-        <v>34257698794.25573</v>
+        <v>32750123424.02778</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.47071357</v>
+        <v>-2.22509938</v>
       </c>
     </row>
     <row r="3">
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2586.856039885149</v>
+        <v>2592.489489609187</v>
       </c>
       <c r="D3" t="n">
-        <v>311821472750.0287</v>
+        <v>312500532799.1881</v>
       </c>
       <c r="E3" t="n">
-        <v>18890145298.82006</v>
+        <v>18369239576.11192</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.23775954</v>
+        <v>-2.93078225</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.000045827765734</v>
+        <v>0.9999660058477171</v>
       </c>
       <c r="D4" t="n">
-        <v>141886012849.9061</v>
+        <v>141874687755.2245</v>
       </c>
       <c r="E4" t="n">
-        <v>79309256291.6971</v>
+        <v>78413563072.52255</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0029604</v>
+        <v>-0.01671535</v>
       </c>
     </row>
     <row r="5">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.379157954685613</v>
+        <v>2.383622643703007</v>
       </c>
       <c r="D5" t="n">
-        <v>137426219982.7425</v>
+        <v>137684111785.954</v>
       </c>
       <c r="E5" t="n">
-        <v>5018834010.263973</v>
+        <v>5029824215.216807</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.14408925</v>
+        <v>-1.68938916</v>
       </c>
     </row>
     <row r="6">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>195.5548047033746</v>
+        <v>195.4638894531935</v>
       </c>
       <c r="D6" t="n">
-        <v>95444861413.2957</v>
+        <v>95400488208.21364</v>
       </c>
       <c r="E6" t="n">
-        <v>3839692216.878085</v>
+        <v>3840389191.218092</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.06933949</v>
+        <v>-2.90766783</v>
       </c>
     </row>
     <row r="7">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>627.8017892085472</v>
+        <v>628.4068400723841</v>
       </c>
       <c r="D7" t="n">
-        <v>89448851544.8698</v>
+        <v>89535058857.15648</v>
       </c>
       <c r="E7" t="n">
-        <v>2066505380.642586</v>
+        <v>2067112741.318664</v>
       </c>
       <c r="F7" t="n">
-        <v>2.56491959</v>
+        <v>2.7076317</v>
       </c>
     </row>
     <row r="8">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.000117974729592</v>
+        <v>0.9999825684102667</v>
       </c>
       <c r="D8" t="n">
-        <v>56237255244.55858</v>
+        <v>56229641263.07435</v>
       </c>
       <c r="E8" t="n">
-        <v>7033855971.994254</v>
+        <v>7072609846.294248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01691713</v>
+        <v>-0.00278842</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2491418364723165</v>
+        <v>0.2498603269462156</v>
       </c>
       <c r="D9" t="n">
-        <v>36874254046.04343</v>
+        <v>36980594276.32893</v>
       </c>
       <c r="E9" t="n">
-        <v>1619183739.505573</v>
+        <v>1625798572.95368</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.90936591</v>
+        <v>-1.32750919</v>
       </c>
     </row>
     <row r="10">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7587596527810608</v>
+        <v>0.7606054509806588</v>
       </c>
       <c r="D10" t="n">
-        <v>26706217399.64586</v>
+        <v>26771184333.26398</v>
       </c>
       <c r="E10" t="n">
-        <v>1680889347.372958</v>
+        <v>1684974912.72321</v>
       </c>
       <c r="F10" t="n">
-        <v>8.002185750000001</v>
+        <v>8.524390629999999</v>
       </c>
     </row>
     <row r="11">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.240720906961837</v>
+        <v>0.2405362414164815</v>
       </c>
       <c r="D11" t="n">
-        <v>20726737824.27134</v>
+        <v>20710837608.57315</v>
       </c>
       <c r="E11" t="n">
-        <v>589323117.3960476</v>
+        <v>589438548.2710127</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.08233292</v>
+        <v>-1.07513822</v>
       </c>
     </row>
     <row r="12">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.33228591254745</v>
+        <v>18.3886178935976</v>
       </c>
       <c r="D12" t="n">
-        <v>11697831099.12857</v>
+        <v>11733776534.57222</v>
       </c>
       <c r="E12" t="n">
-        <v>457484472.0273979</v>
+        <v>462466939.6650178</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.54609859</v>
+        <v>-2.06168949</v>
       </c>
     </row>
     <row r="13">
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.96815173243887</v>
+        <v>25.02029229374534</v>
       </c>
       <c r="D13" t="n">
-        <v>10284240891.16336</v>
+        <v>10305717294.31977</v>
       </c>
       <c r="E13" t="n">
-        <v>344365120.94277</v>
+        <v>346955138.8592598</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.12939779</v>
+        <v>-1.66871015</v>
       </c>
     </row>
     <row r="14">
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.255303522162567</v>
+        <v>3.258846016465</v>
       </c>
       <c r="D14" t="n">
-        <v>10057934712.7358</v>
+        <v>10068879982.86854</v>
       </c>
       <c r="E14" t="n">
-        <v>1363199424.741805</v>
+        <v>1367708373.434457</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06592335000000001</v>
+        <v>0.48956501</v>
       </c>
     </row>
     <row r="15">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3160275911541122</v>
+        <v>0.3161799080931682</v>
       </c>
       <c r="D15" t="n">
-        <v>9668078113.447565</v>
+        <v>9672737871.348505</v>
       </c>
       <c r="E15" t="n">
-        <v>392334580.7522579</v>
+        <v>393927329.8546212</v>
       </c>
       <c r="F15" t="n">
-        <v>0.83262457</v>
+        <v>1.05832785</v>
       </c>
     </row>
     <row r="16">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.706339996555385</v>
+        <v>3.707022963537982</v>
       </c>
       <c r="D16" t="n">
-        <v>9243720400.328037</v>
+        <v>9245423739.966507</v>
       </c>
       <c r="E16" t="n">
-        <v>124130671.3278787</v>
+        <v>124404510.6686558</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.39862135</v>
+        <v>-3.22743208</v>
       </c>
     </row>
     <row r="17">
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.548812912608856e-05</v>
+        <v>1.550062187145546e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>9126440504.572248</v>
+        <v>9133801903.512144</v>
       </c>
       <c r="E17" t="n">
-        <v>275676381.8190979</v>
+        <v>276217031.4222148</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.35556008</v>
+        <v>-2.07828768</v>
       </c>
     </row>
     <row r="18">
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.783076868778698</v>
+        <v>9.783701101532673</v>
       </c>
       <c r="D18" t="n">
-        <v>9040963854.766973</v>
+        <v>9041540735.214846</v>
       </c>
       <c r="E18" t="n">
-        <v>728017.60727739</v>
+        <v>729503.61102404</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.68655655</v>
+        <v>-0.6223839</v>
       </c>
     </row>
     <row r="19">
@@ -887,16 +887,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118.6996109162899</v>
+        <v>118.9353208578222</v>
       </c>
       <c r="D19" t="n">
-        <v>8964434188.308315</v>
+        <v>8982235478.827169</v>
       </c>
       <c r="E19" t="n">
-        <v>1938519394.14063</v>
+        <v>1940546189.192315</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.99724093</v>
+        <v>-0.7913731000000001</v>
       </c>
     </row>
     <row r="20">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2272949508615189</v>
+        <v>0.2278032626192811</v>
       </c>
       <c r="D20" t="n">
-        <v>8698014811.694477</v>
+        <v>8717466643.691698</v>
       </c>
       <c r="E20" t="n">
-        <v>310764697.4966482</v>
+        <v>311751153.0076909</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.12660821</v>
+        <v>-2.75070713</v>
       </c>
     </row>
     <row r="21">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.91967310146789</v>
+        <v>23.07437921987989</v>
       </c>
       <c r="D21" t="n">
-        <v>7653524724.968129</v>
+        <v>7705185457.52431</v>
       </c>
       <c r="E21" t="n">
-        <v>127346492.3905913</v>
+        <v>127228914.9031498</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.08309881</v>
+        <v>-3.30464693</v>
       </c>
     </row>
     <row r="22">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.33328285400143</v>
+        <v>6.335846246988158</v>
       </c>
       <c r="D22" t="n">
-        <v>7599939424.801716</v>
+        <v>7603015496.38579</v>
       </c>
       <c r="E22" t="n">
-        <v>215895057.7488468</v>
+        <v>216669490.1829691</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.14889508</v>
+        <v>-1.70871278</v>
       </c>
     </row>
     <row r="23">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.766246638716281</v>
+        <v>4.776072039842229</v>
       </c>
       <c r="D23" t="n">
-        <v>7377266447.141677</v>
+        <v>7392474347.099555</v>
       </c>
       <c r="E23" t="n">
-        <v>246956921.1456999</v>
+        <v>249352806.0269155</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.06624448</v>
+        <v>-1.6130478</v>
       </c>
     </row>
     <row r="24">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>326.518078796449</v>
+        <v>326.9271031412242</v>
       </c>
       <c r="D24" t="n">
-        <v>6474211690.43495</v>
+        <v>6482321839.203363</v>
       </c>
       <c r="E24" t="n">
-        <v>229977492.0802324</v>
+        <v>231101373.002616</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.37022821</v>
+        <v>-1.05054062</v>
       </c>
     </row>
     <row r="25">
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.000189726352996</v>
+        <v>1.00030221700995</v>
       </c>
       <c r="D25" t="n">
-        <v>6044628358.476555</v>
+        <v>6045308193.708983</v>
       </c>
       <c r="E25" t="n">
-        <v>152480109.1086231</v>
+        <v>152448371.8561959</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04147657</v>
+        <v>0.04946154</v>
       </c>
     </row>
     <row r="26">
@@ -1055,16 +1055,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.866257595557353</v>
+        <v>5.852067003622924</v>
       </c>
       <c r="D26" t="n">
-        <v>5701512705.124394</v>
+        <v>5687720634.304208</v>
       </c>
       <c r="E26" t="n">
-        <v>182965563.2635502</v>
+        <v>184563084.9008803</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.06009066</v>
+        <v>-3.27364854</v>
       </c>
     </row>
     <row r="27">
@@ -1079,16 +1079,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.264597076653589</v>
+        <v>9.281945535750529</v>
       </c>
       <c r="D27" t="n">
-        <v>5563557656.645816</v>
+        <v>5573975719.260002</v>
       </c>
       <c r="E27" t="n">
-        <v>255255956.0168574</v>
+        <v>255532482.8621475</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.97483104</v>
+        <v>-1.62509531</v>
       </c>
     </row>
     <row r="28">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9999843022989958</v>
+        <v>1.000082729032231</v>
       </c>
       <c r="D28" t="n">
-        <v>5365298478.491433</v>
+        <v>5365826575.583412</v>
       </c>
       <c r="E28" t="n">
-        <v>207791235.1605388</v>
+        <v>208561019.9749332</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00882608</v>
+        <v>0.00534337</v>
       </c>
     </row>
     <row r="29">
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.337073355573688</v>
+        <v>1.339268156144744</v>
       </c>
       <c r="D29" t="n">
-        <v>4223958504.41813</v>
+        <v>4230892115.42681</v>
       </c>
       <c r="E29" t="n">
-        <v>452060454.4361357</v>
+        <v>453619225.6289999</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.48201039</v>
+        <v>0.05986801</v>
       </c>
     </row>
     <row r="30">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>220.292102303936</v>
+        <v>220.431652312352</v>
       </c>
       <c r="D30" t="n">
-        <v>4063672032.660151</v>
+        <v>4066246275.950883</v>
       </c>
       <c r="E30" t="n">
-        <v>68487269.64163153</v>
+        <v>68444468.24939306</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.02599059</v>
+        <v>-0.59036914</v>
       </c>
     </row>
     <row r="31">
@@ -1175,16 +1175,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.435043459878009e-06</v>
+        <v>9.436778802645265e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>3969227489.631684</v>
+        <v>3969957530.806908</v>
       </c>
       <c r="E31" t="n">
-        <v>906496132.4060947</v>
+        <v>908913651.2019387</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.22342858</v>
+        <v>-1.89231782</v>
       </c>
     </row>
     <row r="32">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.141933260157332</v>
+        <v>3.145258826433036</v>
       </c>
       <c r="D32" t="n">
-        <v>3719351241.481398</v>
+        <v>3723287973.433352</v>
       </c>
       <c r="E32" t="n">
-        <v>191202183.8171785</v>
+        <v>191397146.687006</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.80317925</v>
+        <v>-2.45224163</v>
       </c>
     </row>
     <row r="33">
@@ -1223,16 +1223,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>242.5880962598873</v>
+        <v>243.0429676207993</v>
       </c>
       <c r="D33" t="n">
-        <v>3655189808.209589</v>
+        <v>3662043570.566793</v>
       </c>
       <c r="E33" t="n">
-        <v>320610599.7925932</v>
+        <v>321280938.6475683</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.03326817</v>
+        <v>-4.56345559</v>
       </c>
     </row>
     <row r="34">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.008849088525994</v>
+        <v>1.010507238733594</v>
       </c>
       <c r="D34" t="n">
-        <v>3394468861.293477</v>
+        <v>3400048029.982889</v>
       </c>
       <c r="E34" t="n">
-        <v>135988272.0928675</v>
+        <v>136244853.1274705</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.5710501</v>
+        <v>-1.33031394</v>
       </c>
     </row>
     <row r="35">
@@ -1271,16 +1271,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.82754231221648</v>
+        <v>5.826477653932908</v>
       </c>
       <c r="D35" t="n">
-        <v>3350693506.447992</v>
+        <v>3350081354.119235</v>
       </c>
       <c r="E35" t="n">
-        <v>250086168.8382007</v>
+        <v>250414628.5605344</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.92940778</v>
+        <v>-5.77046264</v>
       </c>
     </row>
     <row r="36">
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.948327454900738</v>
+        <v>6.944324068700896</v>
       </c>
       <c r="D36" t="n">
-        <v>3339007840.666298</v>
+        <v>3337084019.718415</v>
       </c>
       <c r="E36" t="n">
-        <v>98212893.67005162</v>
+        <v>97319997.51087709</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8326197</v>
+        <v>-0.2983762</v>
       </c>
     </row>
     <row r="37">
@@ -1319,16 +1319,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>405.1347811119805</v>
+        <v>406.7716783201752</v>
       </c>
       <c r="D37" t="n">
-        <v>3328276218.104138</v>
+        <v>3341723708.429609</v>
       </c>
       <c r="E37" t="n">
-        <v>235981823.4408785</v>
+        <v>236364750.7709707</v>
       </c>
       <c r="F37" t="n">
-        <v>3.78272589</v>
+        <v>4.88794276</v>
       </c>
     </row>
     <row r="38">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15.31668526099499</v>
+        <v>15.34141619431833</v>
       </c>
       <c r="D38" t="n">
-        <v>3063331231.351524</v>
+        <v>3068277408.617619</v>
       </c>
       <c r="E38" t="n">
-        <v>905818258.2112744</v>
+        <v>907176165.7614782</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.57949429</v>
+        <v>-4.27045729</v>
       </c>
     </row>
     <row r="39">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>50.28325373187443</v>
+        <v>50.39636068211867</v>
       </c>
       <c r="D39" t="n">
-        <v>3016995223.912466</v>
+        <v>3023781640.92712</v>
       </c>
       <c r="E39" t="n">
-        <v>7999902.66676642</v>
+        <v>8021187.08292179</v>
       </c>
       <c r="F39" t="n">
-        <v>3.89191271</v>
+        <v>4.10672957</v>
       </c>
     </row>
     <row r="40">
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.9077846372716</v>
+        <v>19.92246483975471</v>
       </c>
       <c r="D40" t="n">
-        <v>3000349418.096545</v>
+        <v>3002561906.215151</v>
       </c>
       <c r="E40" t="n">
-        <v>136101972.6919951</v>
+        <v>136466354.4886619</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.49317484</v>
+        <v>-3.22814846</v>
       </c>
     </row>
     <row r="41">
@@ -1415,16 +1415,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.03285174208082739</v>
+        <v>0.03287005589241433</v>
       </c>
       <c r="D41" t="n">
-        <v>2660499685.15199</v>
+        <v>2661982829.937466</v>
       </c>
       <c r="E41" t="n">
-        <v>54596847.51312023</v>
+        <v>54667567.33982691</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.41989974</v>
+        <v>-2.21930679</v>
       </c>
     </row>
     <row r="42">
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.3048224877492975</v>
+        <v>0.305091348296653</v>
       </c>
       <c r="D42" t="n">
-        <v>2609182250.20047</v>
+        <v>2611483609.83151</v>
       </c>
       <c r="E42" t="n">
-        <v>114882256.8682217</v>
+        <v>115219331.4706379</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.98349048</v>
+        <v>-1.9447116</v>
       </c>
     </row>
     <row r="43">
@@ -1463,16 +1463,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0951344493325425</v>
+        <v>0.09537755223416344</v>
       </c>
       <c r="D43" t="n">
-        <v>2444901086.109563</v>
+        <v>2451148692.022873</v>
       </c>
       <c r="E43" t="n">
-        <v>118072890.4182046</v>
+        <v>118250054.1590946</v>
       </c>
       <c r="F43" t="n">
-        <v>3.58123277</v>
+        <v>4.51336328</v>
       </c>
     </row>
     <row r="44">
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.09185828125697899</v>
+        <v>0.09186009323311535</v>
       </c>
       <c r="D44" t="n">
-        <v>2440817895.850057</v>
+        <v>2440866042.883944</v>
       </c>
       <c r="E44" t="n">
-        <v>19235392.70214645</v>
+        <v>19333935.46435552</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.44770261</v>
+        <v>-1.34460309</v>
       </c>
     </row>
     <row r="45">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.2830304701027405</v>
+        <v>0.2839149809588302</v>
       </c>
       <c r="D45" t="n">
-        <v>2384748635.725832</v>
+        <v>2392201317.610502</v>
       </c>
       <c r="E45" t="n">
-        <v>133681926.4319521</v>
+        <v>133914720.4587366</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.68446146</v>
+        <v>-1.24374675</v>
       </c>
     </row>
     <row r="46">
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.384105873389036</v>
+        <v>4.386911247694671</v>
       </c>
       <c r="D46" t="n">
-        <v>2269724343.216692</v>
+        <v>2271176732.036037</v>
       </c>
       <c r="E46" t="n">
-        <v>73274721.81280586</v>
+        <v>73800881.2064608</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.44379217</v>
+        <v>-2.02215699</v>
       </c>
     </row>
     <row r="47">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8116342157715132</v>
+        <v>0.8114870562650305</v>
       </c>
       <c r="D47" t="n">
-        <v>2140635644.229526</v>
+        <v>2140247520.024259</v>
       </c>
       <c r="E47" t="n">
-        <v>192624823.7304458</v>
+        <v>192646508.7905873</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.92094412</v>
+        <v>-3.58006739</v>
       </c>
     </row>
     <row r="48">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.276268881100185</v>
+        <v>3.282286756221128</v>
       </c>
       <c r="D48" t="n">
-        <v>2060746493.422282</v>
+        <v>2064531687.954048</v>
       </c>
       <c r="E48" t="n">
-        <v>127778114.2608807</v>
+        <v>128046179.8264159</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.70190278</v>
+        <v>-3.30635309</v>
       </c>
     </row>
     <row r="49">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.4591318659600349</v>
+        <v>0.4598468479936584</v>
       </c>
       <c r="D49" t="n">
-        <v>1994405729.07458</v>
+        <v>1997511512.77152</v>
       </c>
       <c r="E49" t="n">
-        <v>176005894.095571</v>
+        <v>175760520.3181599</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.79093969</v>
+        <v>-2.32100296</v>
       </c>
     </row>
     <row r="50">
@@ -1631,16 +1631,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21.65490897391789</v>
+        <v>21.65380822691258</v>
       </c>
       <c r="D50" t="n">
-        <v>1921859007.888444</v>
+        <v>1921761317.311675</v>
       </c>
       <c r="E50" t="n">
-        <v>17917056.13303328</v>
+        <v>17923111.50056464</v>
       </c>
       <c r="F50" t="n">
-        <v>1.30647749</v>
+        <v>1.36786314</v>
       </c>
     </row>
     <row r="51">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9991897312281461</v>
+        <v>0.9991739961012086</v>
       </c>
       <c r="D51" t="n">
-        <v>1818116635.090947</v>
+        <v>1818088003.5957</v>
       </c>
       <c r="E51" t="n">
-        <v>5412368562.51868</v>
+        <v>5429562492.427307</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0402307</v>
+        <v>0.00159636</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1998.405404131166</v>
+        <v>2002.856287154439</v>
       </c>
     </row>
     <row r="3">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.002185750000001</v>
+        <v>8.524390629999999</v>
       </c>
     </row>
     <row r="4">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.92940778</v>
+        <v>-5.77046264</v>
       </c>
     </row>
   </sheetData>
@@ -1791,16 +1791,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94943.29383635317</v>
+        <v>95156.35895390643</v>
       </c>
       <c r="D2" t="n">
-        <v>1882052558708.171</v>
+        <v>1886276129783.699</v>
       </c>
       <c r="E2" t="n">
-        <v>34257698794.25573</v>
+        <v>32750123424.02778</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.47071357</v>
+        <v>-2.22509938</v>
       </c>
     </row>
     <row r="3">
@@ -1815,16 +1815,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2586.856039885149</v>
+        <v>2592.489489609187</v>
       </c>
       <c r="D3" t="n">
-        <v>311821472750.0287</v>
+        <v>312500532799.1881</v>
       </c>
       <c r="E3" t="n">
-        <v>18890145298.82006</v>
+        <v>18369239576.11192</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.23775954</v>
+        <v>-2.93078225</v>
       </c>
     </row>
     <row r="4">
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.000045827765734</v>
+        <v>0.9999660058477171</v>
       </c>
       <c r="D4" t="n">
-        <v>141886012849.9061</v>
+        <v>141874687755.2245</v>
       </c>
       <c r="E4" t="n">
-        <v>79309256291.6971</v>
+        <v>78413563072.52255</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0029604</v>
+        <v>-0.01671535</v>
       </c>
     </row>
     <row r="5">
@@ -1863,16 +1863,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.379157954685613</v>
+        <v>2.383622643703007</v>
       </c>
       <c r="D5" t="n">
-        <v>137426219982.7425</v>
+        <v>137684111785.954</v>
       </c>
       <c r="E5" t="n">
-        <v>5018834010.263973</v>
+        <v>5029824215.216807</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.14408925</v>
+        <v>-1.68938916</v>
       </c>
     </row>
     <row r="6">
@@ -1887,16 +1887,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>195.5548047033746</v>
+        <v>195.4638894531935</v>
       </c>
       <c r="D6" t="n">
-        <v>95444861413.2957</v>
+        <v>95400488208.21364</v>
       </c>
       <c r="E6" t="n">
-        <v>3839692216.878085</v>
+        <v>3840389191.218092</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.06933949</v>
+        <v>-2.90766783</v>
       </c>
     </row>
   </sheetData>
